--- a/apps/dataset/template/excel_template_zh.xlsx
+++ b/apps/dataset/template/excel_template_zh.xlsx
@@ -4,13 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11620"/>
+    <workbookView windowWidth="28000" windowHeight="12260"/>
   </bookViews>
   <sheets>
     <sheet name="MaxKB产品介绍" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -20,7 +33,7 @@
     <t>分段标题（选填）</t>
   </si>
   <si>
-    <t>分段内容（必填，问题答案，最长不超过4096个字符）</t>
+    <t>分段内容（必填，问题答案）</t>
   </si>
   <si>
     <t>问题（选填，单元格内一行一个）</t>
@@ -1211,7 +1224,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="2"/>
